--- a/medicine/Enfance/Les_Six_Compagnons_et_la_Princesse_noire/Les_Six_Compagnons_et_la_Princesse_noire.xlsx
+++ b/medicine/Enfance/Les_Six_Compagnons_et_la_Princesse_noire/Les_Six_Compagnons_et_la_Princesse_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Six Compagnons et la Princesse noire est le 19e roman, sur 49 titres publiés, de la série Les Six Compagnons créée par Paul-Jacques Bonzon.
@@ -514,7 +526,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Six Compagnons
 Tidou
@@ -554,7 +568,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman de 184 pages est divisé en 14 chapitres. Le résumé ci-dessous est basé sur l'édition du roman parue en 1971 dans la Bibliothèque verte.
 Quelques semaines après la rentrée de septembre, Mady voit arriver une nouvelle élève dans sa classe. La jeune fille est noire et s'appelle Youlna Bouakou. Interrogée par Mady, elle dit venir de Guinée et être en France en raison d'une maladie de sa mère. Mady pense que Youlna ne lui dit pas toute la vérité. Elle propose aux Compagnons de suivre Youlna. Gnafron le fait et révèle que Youla, loin d'habiter dans un immeuble collectif, habite dans un grand hôtel lyonnais. De plus, la femme qui serait sa mère pourrait ne pas l'être. Présentée à un adolescent venant de Guinée, il apparaît que Youlna ne connaît pas la langue de ce pays. À la mi-décembre, les Compagnons invitent Youlna à parcourir avec eux la fête foraine. Le lendemain, sous les yeux de Tidou et Mady, un homme annonce à la jeune fille que sa mère a eu un grave malaise et qu'elle a été emmenée à l'hôpital. Deux hommes la font monter dans une voiture. Quelques minutes après, les Compagnons apprennent que la nouvelle était un mensonge et que Youlna vient d'être enlevée. Sa « mère » surgit affolée, se précipite en dehors de l'hôtel, va sur la rue mais se fait renverser par une voiture.
@@ -590,7 +606,9 @@
           <t>Date du récit</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'un des rares livres des Six Compagnons pour lequel on peut fixer précisément une date de l'action. Il est fait référence à trois reprises à une épidémie de grippe qui peut être celle de la grippe de Hong Kong de 1969-1970. L'action se déroule donc en décembre 1969 et se termine précisément le 24 décembre de cette année-là.
 </t>
@@ -621,9 +639,11 @@
           <t>Adaptation en série télévisée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les Six Compagnons et la Princesse noire, épisode de la série « Les Compagnons de l'aventure », diffusion le 22 décembre 1989[1].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Six Compagnons et la Princesse noire, épisode de la série « Les Compagnons de l'aventure », diffusion le 22 décembre 1989.</t>
         </is>
       </c>
     </row>
